--- a/Week6/dictionary/s2021_nh.xlsx
+++ b/Week6/dictionary/s2021_nh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10816"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC870AF-5C9A-1244-AADA-4B746D9D4D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA0FCF5-6757-8F4B-BEEC-101D857041CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20880" windowHeight="17080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="302">
   <si>
     <t>Filename</t>
   </si>
@@ -991,6 +991,9 @@
   <si>
     <t xml:space="preserve">This file contains the number of full-time new hires by primary occupation, race/ethnicity and gender.  New hires include persons who were hired for full-time permanent employment for the first time, or after a break in service, between November 1, 2020 - October 31, 2021. All new hire data prior to the Fall 2018 data file, used the four month period of July 1st - October 31st to define a new hire.  
 New hires for instructional staff occupation are also reported by faculty/tenure status. Beginning with 2016, instructional staff that are not on tenure track are further disaggregated by contract length (multi-year, indefinite, annual and less-than-annual).  From 2012 through 2015 the multi-year and indefinite contract lengths were combined as one category and often referred to as multi-year in past documentation This file has multiple records per institution.  Each record is uniquely defined by the variables IPEDS ID (UNITID), and the variable SNHCAT which defines the primary occupation and faculty/tenure status for instructional staff. These data are applicable to degree-granting institutions with 15 or more full-time employees and related administrative offices. </t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1746,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
@@ -1766,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>24</v>
